--- a/templates/Supplier Quotations.xlsx
+++ b/templates/Supplier Quotations.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Lot Description: </t>
   </si>
   <si>
-    <t xml:space="preserve">ITEMIZED COSTS</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
     <t xml:space="preserve">UNIT PRICE</t>
@@ -494,7 +494,7 @@
   <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
